--- a/lib/standards.xlsx
+++ b/lib/standards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\evaluation\supplier_api\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609A8C27-3C6E-4EFE-A1A2-94AA1F54FE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98388545-E9CE-4CAA-BBBB-EC74C1B2D426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier Data" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="Manual Pull Station" sheetId="6" r:id="rId6"/>
     <sheet name="Door Holders" sheetId="7" r:id="rId7"/>
     <sheet name="Notification Devices" sheetId="8" r:id="rId8"/>
+    <sheet name="Isolation Data" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="122">
   <si>
     <t>Key</t>
   </si>
@@ -378,6 +379,21 @@
   </si>
   <si>
     <t>Fire alarm horn with strobe wp</t>
+  </si>
+  <si>
+    <t>Built in fault isolator for each detector</t>
+  </si>
+  <si>
+    <t>Built in fault isolator for each mcp bg</t>
+  </si>
+  <si>
+    <t>Built in fault isolator for each sounder horn</t>
+  </si>
+  <si>
+    <t>Built in fault isolator for monitor control modules</t>
+  </si>
+  <si>
+    <t>Grouping for each 12 15</t>
   </si>
 </sst>
 </file>
@@ -1662,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9ED77DC-0DCE-490E-92B9-2B25E44EC1CC}">
   <dimension ref="A1:XFC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18153,4 +18169,99 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B28E244-B2A7-4D16-978E-B0F29349485A}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.875" customWidth="1"/>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lib/standards.xlsx
+++ b/lib/standards.xlsx
@@ -3,7 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet sheetId="1" name="Updated Data" r:id="rId1"/>
+    <sheet sheetId="1" name="Supplier Data" r:id="rId1"/>
+    <sheet sheetId="2" name="Fire Alarm Control Panel" r:id="rId2"/>
+    <sheet sheetId="3" name="Product Data" r:id="rId3"/>
+    <sheet sheetId="4" name="Graphic Systems" r:id="rId4"/>
+    <sheet sheetId="5" name="Detectors Field Devices" r:id="rId5"/>
+    <sheet sheetId="6" name="Manual Pull Station" r:id="rId6"/>
+    <sheet sheetId="7" name="Door Holders" r:id="rId7"/>
+    <sheet sheetId="8" name="Notification Devices" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
@@ -67,7 +74,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -75,24 +82,14 @@
   <cols>
     <col width="33.0" min="1" max="1" bestFit="1" customWidth="1"/>
     <col width="25.3" min="2" max="2" bestFit="1" customWidth="1"/>
-    <col width="11.0" min="3" max="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Column1</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>Column2</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>Column3</t>
-        </is>
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -104,11 +101,6 @@
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -118,12 +110,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Cade Cote</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t/>
+          <t>Daryl Holcomb</t>
         </is>
       </c>
     </row>
@@ -135,12 +122,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Enim corrupti velit</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t/>
+          <t>Deserunt in rem ut i</t>
         </is>
       </c>
     </row>
@@ -151,12 +133,7 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2011</v>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>2002</v>
       </c>
     </row>
     <row r="6">
@@ -167,12 +144,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>In earum similique v</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t/>
+          <t>Aperiam commodi comm</t>
         </is>
       </c>
     </row>
@@ -184,12 +156,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t/>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -201,12 +168,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t/>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -219,9 +181,1382 @@
       <c r="B9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="0" t="inlineStr">
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <printOptions gridLines="0" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
+  <pageSetup/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col width="48.400000000000006" min="1" max="1" bestFit="1" customWidth="1"/>
+    <col width="25.3" min="2" max="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Total no of panels</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Total number of loop cards</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Total number of circuits per card loop</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Total no of loops</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Total no of spare loops</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Total no of detectors per loop</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Spare no of loops per panel</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Initiating devices polarity insensitivity</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Cupiditate quaerat q</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Spare percentage per loop</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Fa repeater</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Auto dialer</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Dot matrix printer</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Printer listing</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Voluptate a rerum se</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Power standby 24 alarm 5</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Sint et deserunt et </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Power standby 24 alarm 15</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Ducimus vel distinc</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Internal batteries backup capacity panel</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>External batteries backup time</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Created at</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Updated at</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Subsystem</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <printOptions gridLines="0" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
+  <pageSetup/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col width="33.0" min="1" max="1" bestFit="1" customWidth="1"/>
+    <col width="25.3" min="2" max="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Manufacturer</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Odit facere omnis si</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Submitted product</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Qui dolor accusantiu</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Product certifications</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Rerum et ea quae ver</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Total years in saudi market</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Coo</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Ut velit reprehender</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Com for mfacp</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Do aute laboris aspe</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Com for detectors</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>Reprehenderit aliqu</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Subsystem</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Created at</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Updated at</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <printOptions gridLines="0" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
+  <pageSetup/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col width="33.0" min="1" max="1" bestFit="1" customWidth="1"/>
+    <col width="25.3" min="2" max="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Workstation</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Laborum Eius sit s</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Workstation control feature</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>In libero rerum labo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Softwares</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Est dicta voluptas f</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Licenses</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Tenetur non consecte</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Screens</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Ipsa dolores adipis</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Subsystem</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Created at</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Updated at</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <printOptions gridLines="0" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
+  <pageSetup/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col width="59.400000000000006" min="1" max="1" bestFit="1" customWidth="1"/>
+    <col width="5.5" min="2" max="2" bestFit="1" customWidth="1"/>
+    <col width="5.5" min="3" max="3" bestFit="1" customWidth="1"/>
+    <col width="7.700000000000001" min="4" max="4" bestFit="1" customWidth="1"/>
+    <col width="25.3" min="5" max="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Smoke detectors</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>4316</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>Quam voluptatem labo</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Smoke detectors with built in isolator</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>4018</v>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Exercitationem dolor</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Smoke detectors wall mounted with built in isolator</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Possimus reprehende</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Smoke detectors with led indicators</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4794</v>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>Exercitationem quos </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Smoke detectors with led and built in isolator</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1350</v>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>Natus dignissimos ni</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Heat detectors</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>Ut dolor ad voluptat</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Heat detectors with built in isolator</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>806</v>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>Rem occaecat nostrum</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>High temperature heat detectors</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>6664</v>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>Minim veritatis est </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Heat rate of rise</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>3864</v>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>Sint quis magni in </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Multi detectors</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>3312</v>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>Corporis corrupti a</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Multi detectors with built in isolator</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>Porro non sint est </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>High sensitive detectors for harsh environments</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>Consequatur volupta</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Sensitivity range</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1936</v>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Eligendi aliquip vol</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Beam detector transmitter</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>Quia inventore sed s</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Beam detector receiver</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>5152</v>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>Quo perspiciatis si</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Duct smoke detectors</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2714</v>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>Dolor consequatur ne</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Flow switches interface module</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>756</v>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>Officia commodi null</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Tamper switches interface module</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>3021</v>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>Omnis saepe ut in se</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Gas detectors</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>4059</v>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>Velit aliquip in eiu</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Flame detectors</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>Sed culpa voluptate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <printOptions gridLines="0" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
+  <pageSetup/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col width="30.800000000000004" min="1" max="1" bestFit="1" customWidth="1"/>
+    <col width="25.3" min="2" max="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Repudiandae voluptas</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Break glass</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Break glass weather proof</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Subsystem</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Created at</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Updated at</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <printOptions gridLines="0" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
+  <pageSetup/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col width="28.6" min="1" max="1" bestFit="1" customWidth="1"/>
+    <col width="4.4" min="2" max="2" bestFit="1" customWidth="1"/>
+    <col width="4.4" min="3" max="3" bestFit="1" customWidth="1"/>
+    <col width="4.4" min="4" max="4" bestFit="1" customWidth="1"/>
+    <col width="4.4" min="5" max="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Total Number of Devices</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Total Number of Relays</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <printOptions gridLines="0" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
+  <pageSetup/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col width="36.300000000000004" min="1" max="1" bestFit="1" customWidth="1"/>
+    <col width="25.3" min="2" max="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Notification addressing</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Ut temporibus repreh</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Fire alarm strobe</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Fire alarm strobe wp</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Fire alarm horn</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Fire alarm horn wp</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Fire alarm horn with strobe</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Fire alarm horn with strobe wp</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Subsystem</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Created at</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Updated at</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>

--- a/lib/standards.xlsx
+++ b/lib/standards.xlsx
@@ -81,15 +81,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="33.0" min="1" max="1" bestFit="1" customWidth="1"/>
-    <col width="25.3" min="2" max="2" bestFit="1" customWidth="1"/>
+    <col width="28.6" min="2" max="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>2</v>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -110,7 +114,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Daryl Holcomb</t>
+          <t>Adam Rodgers</t>
         </is>
       </c>
     </row>
@@ -122,7 +126,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Deserunt in rem ut i</t>
+          <t>Omnis minus ut iste </t>
         </is>
       </c>
     </row>
@@ -133,7 +137,7 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2002</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="6">
@@ -144,7 +148,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Aperiam commodi comm</t>
+          <t>Laborum Consectetur</t>
         </is>
       </c>
     </row>
@@ -154,10 +158,8 @@
           <t>Created at</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
+      <c r="B7" s="2">
+        <v>45690.64534295795</v>
       </c>
     </row>
     <row r="8">
@@ -166,10 +168,8 @@
           <t>Updated at</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
+      <c r="B8" s="2">
+        <v>45692.01832649687</v>
       </c>
     </row>
     <row r="9">
@@ -203,15 +203,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="48.400000000000006" min="1" max="1" bestFit="1" customWidth="1"/>
-    <col width="25.3" min="2" max="2" bestFit="1" customWidth="1"/>
+    <col width="28.6" min="2" max="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>2</v>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -232,7 +236,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>UL</t>
         </is>
       </c>
     </row>
@@ -243,7 +247,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -253,7 +257,7 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>401</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6">
@@ -263,7 +267,7 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>472</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
@@ -273,7 +277,7 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -283,7 +287,7 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +297,7 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -303,7 +307,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -314,7 +318,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Cupiditate quaerat q</t>
+          <t>Esse blanditiis mol</t>
         </is>
       </c>
     </row>
@@ -325,7 +329,7 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
@@ -335,7 +339,7 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -345,7 +349,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -355,7 +359,7 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -366,7 +370,7 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>Voluptate a rerum se</t>
+          <t>Voluptatum dolore si</t>
         </is>
       </c>
     </row>
@@ -378,7 +382,7 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>Sint et deserunt et </t>
+          <t>Velit vel dolor non</t>
         </is>
       </c>
     </row>
@@ -390,7 +394,7 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>Ducimus vel distinc</t>
+          <t>Aut voluptas nihil e</t>
         </is>
       </c>
     </row>
@@ -401,7 +405,7 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -411,7 +415,7 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -420,10 +424,8 @@
           <t>Created at</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
+      <c r="B21" s="2">
+        <v>45690.64534335464</v>
       </c>
     </row>
     <row r="22">
@@ -432,10 +434,8 @@
           <t>Updated at</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
+      <c r="B22" s="2">
+        <v>45692.01832656486</v>
       </c>
     </row>
     <row r="23">
@@ -469,15 +469,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="33.0" min="1" max="1" bestFit="1" customWidth="1"/>
-    <col width="25.3" min="2" max="2" bestFit="1" customWidth="1"/>
+    <col width="28.6" min="2" max="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>2</v>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -498,7 +502,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Odit facere omnis si</t>
+          <t>Unde labore assumend</t>
         </is>
       </c>
     </row>
@@ -510,7 +514,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Qui dolor accusantiu</t>
+          <t>Mollitia excepturi v</t>
         </is>
       </c>
     </row>
@@ -522,7 +526,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Rerum et ea quae ver</t>
+          <t>Rerum sit dolor qua</t>
         </is>
       </c>
     </row>
@@ -533,7 +537,7 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1973</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="7">
@@ -544,7 +548,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Ut velit reprehender</t>
+          <t>Temporibus do obcaec</t>
         </is>
       </c>
     </row>
@@ -556,7 +560,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Do aute laboris aspe</t>
+          <t>Iusto quae irure cil</t>
         </is>
       </c>
     </row>
@@ -568,7 +572,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Reprehenderit aliqu</t>
+          <t>Eum autem aliquam la</t>
         </is>
       </c>
     </row>
@@ -588,10 +592,8 @@
           <t>Created at</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
+      <c r="B11" s="2">
+        <v>45690.645347796984</v>
       </c>
     </row>
     <row r="12">
@@ -600,10 +602,8 @@
           <t>Updated at</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
+      <c r="B12" s="2">
+        <v>45692.0183270467</v>
       </c>
     </row>
   </sheetData>
@@ -627,15 +627,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="33.0" min="1" max="1" bestFit="1" customWidth="1"/>
-    <col width="25.3" min="2" max="2" bestFit="1" customWidth="1"/>
+    <col width="28.6" min="2" max="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>2</v>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -656,7 +660,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Laborum Eius sit s</t>
+          <t>Nisi quis esse vero</t>
         </is>
       </c>
     </row>
@@ -668,7 +672,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>In libero rerum labo</t>
+          <t>Quae dolor proident</t>
         </is>
       </c>
     </row>
@@ -680,7 +684,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Est dicta voluptas f</t>
+          <t>Culpa et totam elig</t>
         </is>
       </c>
     </row>
@@ -692,7 +696,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Tenetur non consecte</t>
+          <t>Labore odit enim qui</t>
         </is>
       </c>
     </row>
@@ -704,7 +708,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Ipsa dolores adipis</t>
+          <t>Excepturi voluptas q</t>
         </is>
       </c>
     </row>
@@ -724,10 +728,8 @@
           <t>Created at</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
+      <c r="B9" s="2">
+        <v>45690.64534860172</v>
       </c>
     </row>
     <row r="10">
@@ -736,10 +738,8 @@
           <t>Updated at</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
+      <c r="B10" s="2">
+        <v>45692.01832712396</v>
       </c>
     </row>
   </sheetData>
@@ -763,27 +763,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="59.400000000000006" min="1" max="1" bestFit="1" customWidth="1"/>
-    <col width="5.5" min="2" max="2" bestFit="1" customWidth="1"/>
-    <col width="5.5" min="3" max="3" bestFit="1" customWidth="1"/>
-    <col width="7.700000000000001" min="4" max="4" bestFit="1" customWidth="1"/>
+    <col width="8.8" min="2" max="2" bestFit="1" customWidth="1"/>
+    <col width="13.200000000000001" min="3" max="3" bestFit="1" customWidth="1"/>
+    <col width="9.9" min="4" max="4" bestFit="1" customWidth="1"/>
     <col width="25.3" min="5" max="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>5</v>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Unit Rate</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -793,17 +803,17 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>4316</v>
+        <v>5166</v>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>Quam voluptatem labo</t>
+          <t>Quis ut est minima </t>
         </is>
       </c>
     </row>
@@ -814,17 +824,17 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>4018</v>
+        <v>3666</v>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>Exercitationem dolor</t>
+          <t>Lorem sunt sit dolor</t>
         </is>
       </c>
     </row>
@@ -835,17 +845,17 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1440</v>
+        <v>6888</v>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>Possimus reprehende</t>
+          <t>Deserunt suscipit es</t>
         </is>
       </c>
     </row>
@@ -856,17 +866,17 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>4794</v>
+        <v>2535</v>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>Exercitationem quos </t>
+          <t>Facilis aut dolores </t>
         </is>
       </c>
     </row>
@@ -877,17 +887,17 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1350</v>
+        <v>4704</v>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>Natus dignissimos ni</t>
+          <t>Veritatis consectetu</t>
         </is>
       </c>
     </row>
@@ -898,17 +908,17 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>360</v>
+        <v>1863</v>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>Ut dolor ad voluptat</t>
+          <t>Laboriosam tempore</t>
         </is>
       </c>
     </row>
@@ -919,17 +929,17 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>806</v>
+        <v>1924</v>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>Rem occaecat nostrum</t>
+          <t>Dolor est aut autem</t>
         </is>
       </c>
     </row>
@@ -940,17 +950,17 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>6664</v>
+        <v>528</v>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>Minim veritatis est </t>
+          <t>Repudiandae nobis cu</t>
         </is>
       </c>
     </row>
@@ -961,17 +971,17 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3864</v>
+        <v>44</v>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>Sint quis magni in </t>
+          <t>Deleniti sed et sit </t>
         </is>
       </c>
     </row>
@@ -982,17 +992,17 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>3312</v>
+        <v>1649</v>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>Corporis corrupti a</t>
+          <t>Ea enim ipsam fugiat</t>
         </is>
       </c>
     </row>
@@ -1003,17 +1013,17 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>34</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>68</v>
+        <v>1462</v>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>Porro non sint est </t>
+          <t>Amet quis dolores i</t>
         </is>
       </c>
     </row>
@@ -1024,17 +1034,17 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>160</v>
+        <v>4760</v>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>Consequatur volupta</t>
+          <t>Qui nemo delectus e</t>
         </is>
       </c>
     </row>
@@ -1045,17 +1055,17 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1936</v>
+        <v>6438</v>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>Eligendi aliquip vol</t>
+          <t>Et voluptate nemo Na</t>
         </is>
       </c>
     </row>
@@ -1066,17 +1076,17 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>390</v>
+        <v>805</v>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>Quia inventore sed s</t>
+          <t>Sunt quisquam mollit</t>
         </is>
       </c>
     </row>
@@ -1087,17 +1097,17 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>5152</v>
+        <v>8900</v>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>Quo perspiciatis si</t>
+          <t>Occaecat voluptatem</t>
         </is>
       </c>
     </row>
@@ -1108,17 +1118,17 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>2714</v>
+        <v>1334</v>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Dolor consequatur ne</t>
+          <t>Reprehenderit cupid</t>
         </is>
       </c>
     </row>
@@ -1129,17 +1139,17 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>756</v>
+        <v>2244</v>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>Officia commodi null</t>
+          <t>Velit sequi odio mo</t>
         </is>
       </c>
     </row>
@@ -1150,17 +1160,17 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>3021</v>
+        <v>4088</v>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>Omnis saepe ut in se</t>
+          <t>Temporibus qui repel</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1181,17 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>4059</v>
+        <v>273</v>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>Velit aliquip in eiu</t>
+          <t>Sequi nulla ad volup</t>
         </is>
       </c>
     </row>
@@ -1192,17 +1202,17 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>720</v>
+        <v>2747</v>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>Sed culpa voluptate</t>
+          <t>Deserunt et dolorem </t>
         </is>
       </c>
     </row>
@@ -1227,15 +1237,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="30.800000000000004" min="1" max="1" bestFit="1" customWidth="1"/>
-    <col width="25.3" min="2" max="2" bestFit="1" customWidth="1"/>
+    <col width="28.6" min="2" max="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>2</v>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1256,7 +1270,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Repudiandae voluptas</t>
+          <t>Ut aperiam esse dict</t>
         </is>
       </c>
     </row>
@@ -1296,10 +1310,8 @@
           <t>Created at</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
+      <c r="B7" s="2">
+        <v>45690.645346053454</v>
       </c>
     </row>
     <row r="8">
@@ -1308,10 +1320,8 @@
           <t>Updated at</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
+      <c r="B8" s="2">
+        <v>45692.01832689102</v>
       </c>
     </row>
   </sheetData>
@@ -1335,27 +1345,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="28.6" min="1" max="1" bestFit="1" customWidth="1"/>
-    <col width="4.4" min="2" max="2" bestFit="1" customWidth="1"/>
-    <col width="4.4" min="3" max="3" bestFit="1" customWidth="1"/>
-    <col width="4.4" min="4" max="4" bestFit="1" customWidth="1"/>
-    <col width="4.4" min="5" max="5" bestFit="1" customWidth="1"/>
+    <col width="8.8" min="2" max="2" bestFit="1" customWidth="1"/>
+    <col width="13.200000000000001" min="3" max="3" bestFit="1" customWidth="1"/>
+    <col width="9.9" min="4" max="4" bestFit="1" customWidth="1"/>
+    <col width="24.200000000000003" min="5" max="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>5</v>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Unit Rate</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1364,24 +1384,18 @@
           <t>Total Number of Devices</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B2" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>6240</v>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Sint saepe aliqua </t>
         </is>
       </c>
     </row>
@@ -1391,24 +1405,18 @@
           <t>Total Number of Relays</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>168</v>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Dolor sit non ratio</t>
         </is>
       </c>
     </row>
@@ -1433,15 +1441,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="36.300000000000004" min="1" max="1" bestFit="1" customWidth="1"/>
-    <col width="25.3" min="2" max="2" bestFit="1" customWidth="1"/>
+    <col width="28.6" min="2" max="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>2</v>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1462,7 +1474,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Ut temporibus repreh</t>
+          <t>Amet illo ea eum au</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1485,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
@@ -1493,7 +1505,7 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1503,7 +1515,7 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1513,7 +1525,7 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -1523,7 +1535,7 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1542,10 +1554,8 @@
           <t>Created at</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
+      <c r="B11" s="2">
+        <v>45690.645349403334</v>
       </c>
     </row>
     <row r="12">
@@ -1554,10 +1564,8 @@
           <t>Updated at</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
+      <c r="B12" s="2">
+        <v>45692.018326822916</v>
       </c>
     </row>
   </sheetData>
